--- a/data/income_statement/2digits/size/49_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/49_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>49-Land transport and transport via pipelines</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>49-Land transport and transport via pipelines</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7265713.549149999</v>
+        <v>7223350.802360001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9244969.521639999</v>
+        <v>9163130.44967</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12709228.16224</v>
+        <v>12627416.69417</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>14169610.07056</v>
+        <v>14055307.20467</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>14696137.57945</v>
+        <v>14811973.35843</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>19015322.56011</v>
+        <v>18891125.48511</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20211617.83997</v>
+        <v>20353702.66255</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>21937792.49429</v>
+        <v>21648986.44122</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>28998149.73452</v>
+        <v>28902500.4519</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>31757472.12533</v>
+        <v>28277469.89136</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32202293.44012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32483834.70433</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38248605.153</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5195903.10309</v>
+        <v>5132140.659779999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6379788.98625</v>
+        <v>6292152.06987</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8554955.530959999</v>
+        <v>8534175.84149</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9743228.58145</v>
+        <v>9645003.238430001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10359102.32454</v>
+        <v>10471592.41742</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12809949.80552</v>
+        <v>12656899.25019</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13902690.67221</v>
+        <v>13950382.79401</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15559336.20095</v>
+        <v>15278057.86454</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>20143939.11515</v>
+        <v>20067193.67509</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>19269051.047</v>
+        <v>18971586.45043</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20561838.17545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20757091.09125</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>23519218.575</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1948058.69683</v>
+        <v>1977659.38121</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2621349.7351</v>
+        <v>2636181.41876</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3786547.03729</v>
+        <v>3727178.91863</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4086476.7131</v>
+        <v>4096665.73609</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3872640.34365</v>
+        <v>3877966.90385</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5614332.705229999</v>
+        <v>5661506.8361</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5707302.89717</v>
+        <v>5814391.47801</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5736380.27121</v>
+        <v>5768992.53409</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8136150.87576</v>
+        <v>8076032.95572</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>11796774.86428</v>
+        <v>8630658.833000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10799044.32625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10873619.72838</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13830031.948</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>121751.74923</v>
+        <v>113550.76137</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>243830.80029</v>
+        <v>234796.96104</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>367725.59399</v>
+        <v>366061.93405</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>339904.77601</v>
+        <v>313638.23015</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>464394.91126</v>
+        <v>462414.0371599999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>591040.0493600001</v>
+        <v>572719.39882</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>601624.2705900001</v>
+        <v>588928.3905300001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>642076.0221299999</v>
+        <v>601936.0425900001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>718059.7436099999</v>
+        <v>759273.82109</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>691646.21405</v>
+        <v>675224.6079299999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>841410.93842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>853123.8846999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>899354.63</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>28297.78724</v>
+        <v>27345.44457</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>31366.45459</v>
+        <v>31234.79462</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>24918.46786</v>
+        <v>24884.77867</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>40999.43725</v>
+        <v>40556.14897000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>36825.15094</v>
+        <v>36204.26243</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>244656.96281</v>
+        <v>246893.09403</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>116934.04127</v>
+        <v>87758.33523</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>272006.19056</v>
+        <v>260454.44671</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>169858.1603</v>
+        <v>168913.20319</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3426926.29351</v>
+        <v>281214.94223</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>505549.33772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>512408.75511</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>443391.455</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>17593.75327</v>
+        <v>16947.75394</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>21476.89109</v>
+        <v>21330.41002</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>18216.69528</v>
+        <v>18311.07687</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>32106.92623</v>
+        <v>31736.80952</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20747.88583</v>
+        <v>20361.4796</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>212481.0658</v>
+        <v>214528.69777</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>90081.13253999999</v>
+        <v>59739.51812000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>163004.87707</v>
+        <v>150221.79118</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>136314.67262</v>
+        <v>136735.74858</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3377230.56199</v>
+        <v>230721.52516</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>465142.2239700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>472172.0844299999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>405222.224</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7653.747520000001</v>
+        <v>7564.57861</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6465.799899999999</v>
+        <v>6460.65049</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4237.92164</v>
+        <v>4155.29348</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3594.42928</v>
+        <v>3469.32795</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>8993.343709999999</v>
+        <v>8894.3071</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>16871.39037</v>
+        <v>16815.9297</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>17662.74332</v>
+        <v>17409.25969</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18599.06608</v>
+        <v>20076.73637</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>21664.37323</v>
+        <v>20223.45663</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>32533.42261</v>
+        <v>33410.40116</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>30433.48091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>30290.89349</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>22051.223</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3050.28645</v>
+        <v>2833.11202</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3423.7636</v>
+        <v>3443.73411</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2463.85094</v>
+        <v>2418.40832</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5298.081740000001</v>
+        <v>5350.0115</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7083.9214</v>
+        <v>6948.47573</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>15304.50664</v>
+        <v>15548.46656</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>9190.16541</v>
+        <v>10609.55742</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>90402.24741</v>
+        <v>90155.91916</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>11879.11445</v>
+        <v>11953.99798</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>17162.30891</v>
+        <v>17083.01591</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9973.63284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9945.777189999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>16118.008</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7237415.76191</v>
+        <v>7196005.35779</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>9213603.067049999</v>
+        <v>9131895.655050002</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12684309.69438</v>
+        <v>12602531.9155</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14128610.63331</v>
+        <v>14014751.0557</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>14659312.42851</v>
+        <v>14775769.096</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18770665.5973</v>
+        <v>18644232.39108</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20094683.7987</v>
+        <v>20265944.32732</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>21665786.30373</v>
+        <v>21388531.99451</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>28828291.57422</v>
+        <v>28733587.24871</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28330545.83182</v>
+        <v>27996254.94913</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31696744.1024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31971425.94922</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>37805213.698</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>6551476.6385</v>
+        <v>6523183.62137</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8385211.68923</v>
+        <v>8335086.705830001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11535764.23186</v>
+        <v>11455967.01439</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12936333.73223</v>
+        <v>12817320.29663</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>13147009.17859</v>
+        <v>13257162.00065</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>17051403.61591</v>
+        <v>16927613.79876</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>18088413.31168</v>
+        <v>18217708.11584</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19658071.48545</v>
+        <v>19393356.73296</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>26561054.61879</v>
+        <v>26462477.74134</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>25736800.09607</v>
+        <v>25436605.5787</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>28887502.32158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>29102650.86412</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>34426733.15</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>69782.11696000001</v>
+        <v>53875.20501</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>98957.89356</v>
+        <v>91070.40957</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>179844.05573</v>
+        <v>165319.96013</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>125148.34285</v>
+        <v>117893.54191</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>104974.5898</v>
+        <v>99918.4638</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>143489.62811</v>
+        <v>133203.99901</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>125960.70107</v>
+        <v>120496.34891</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>187755.59034</v>
+        <v>176266.90147</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>358147.02852</v>
+        <v>441219.96998</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>449439.81546</v>
+        <v>438233.9236699999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>296806.89732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>284511.44715</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>338410.934</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>922809.1564100001</v>
+        <v>904451.9560199999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1220808.88224</v>
+        <v>1210469.37985</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1646795.56353</v>
+        <v>1611912.91654</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1583450.98838</v>
+        <v>1534884.25883</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1361750.40033</v>
+        <v>1373938.88657</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2054443.82502</v>
+        <v>1990504.53248</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2275853.64401</v>
+        <v>2213481.10552</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2416081.52217</v>
+        <v>2300994.52318</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4434425.41494</v>
+        <v>4351717.894470001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2950509.10607</v>
+        <v>2751632.86835</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2850722.334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2722366.8055</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5061279.29</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5506696.89176</v>
+        <v>5514252.14459</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7025215.04773</v>
+        <v>6996004.5518</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9656160.864619998</v>
+        <v>9626189.469529999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>11184530.11012</v>
+        <v>11106733.73443</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>11648495.04237</v>
+        <v>11748791.77705</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>14742286.46361</v>
+        <v>14701324.31847</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15548375.53905</v>
+        <v>15755845.28182</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16867335.00252</v>
+        <v>16750928.75394</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>21520466.88073</v>
+        <v>21419646.94476</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>22152681.35487</v>
+        <v>22067839.72915</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>25519019.8727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>25896188.66486</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>28703613.663</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>52188.47337000001</v>
+        <v>50604.31575</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>40229.8657</v>
+        <v>37542.36461</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>52963.74798000001</v>
+        <v>52544.66819</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>43204.29087999999</v>
+        <v>57808.76145999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>31789.14609</v>
+        <v>34512.87323</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>111183.69917</v>
+        <v>102580.9488</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>138223.42755</v>
+        <v>127885.37959</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>186899.37042</v>
+        <v>165166.55437</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>248015.2946</v>
+        <v>249892.93213</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>184169.81967</v>
+        <v>178899.05753</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>220953.21756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>199583.94661</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>323429.263</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>685939.1234100001</v>
+        <v>672821.73642</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>828391.3778200001</v>
+        <v>796808.94922</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1148545.46252</v>
+        <v>1146564.90111</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1192276.90108</v>
+        <v>1197430.75907</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1512303.24992</v>
+        <v>1518607.09535</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1719261.98139</v>
+        <v>1716618.59232</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2006270.48702</v>
+        <v>2048236.21148</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2007714.81828</v>
+        <v>1995175.26155</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2267236.95543</v>
+        <v>2271109.50737</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2593745.73575</v>
+        <v>2559649.37043</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2809241.78082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2868775.085099999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3378480.548</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>596604.72115</v>
+        <v>577779.6965600001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>734103.3326000001</v>
+        <v>712328.1130499999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>984482.26607</v>
+        <v>957947.4449499999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1106656.24084</v>
+        <v>1088501.50139</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1253859.84143</v>
+        <v>1225989.58439</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1479286.76101</v>
+        <v>1438631.67937</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1647037.87639</v>
+        <v>1637289.00328</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1783250.78892</v>
+        <v>1696643.99944</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2103277.42277</v>
+        <v>2056926.28333</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1995578.19981</v>
+        <v>1918501.08735</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2192714.19013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2170199.22122</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2409218.447</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3851.687</v>
+        <v>2018.19466</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>102.43429</v>
+        <v>100.99429</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>2169.41879</v>
@@ -1586,7 +1572,7 @@
         <v>2639.16561</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3340.81177</v>
+        <v>3369.48586</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>5501.46333</v>
@@ -1595,238 +1581,268 @@
         <v>341.9761399999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>156.62426</v>
+        <v>121.76184</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1576.14243</v>
+        <v>1580.03333</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>247.92177</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>93729.27762000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>93709.21890000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>98861.947</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>78438.79121000001</v>
+        <v>73622.33260000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>115049.67757</v>
+        <v>112219.21295</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>145652.95981</v>
+        <v>138306.71113</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>182718.44552</v>
+        <v>158631.28558</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>212695.92511</v>
+        <v>208692.79546</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>252543.00144</v>
+        <v>239917.87626</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>248808.69662</v>
+        <v>267721.19228</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>324069.16481</v>
+        <v>301334.01399</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>494437.6315</v>
+        <v>490271.02637</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>426363.55726</v>
+        <v>402994.24797</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>363005.7489600001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>346554.00848</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>410834.338</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>514314.2429399999</v>
+        <v>502139.1693</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>618951.22074</v>
+        <v>600007.9058099999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>836659.8874700001</v>
+        <v>817471.3150299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>921298.62971</v>
+        <v>927231.0501999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1037823.10455</v>
+        <v>1013927.30307</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1221242.29624</v>
+        <v>1193212.33978</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1397887.20363</v>
+        <v>1369225.83486</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1459024.99985</v>
+        <v>1395188.22361</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1607263.64884</v>
+        <v>1565075.22363</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1568966.72078</v>
+        <v>1515258.91761</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1735979.16355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1729935.99384</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1899522.162</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>89334.40226</v>
+        <v>95042.03986</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>94288.04522</v>
+        <v>84480.83616999998</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>164063.19645</v>
+        <v>188617.45616</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>85620.66024</v>
+        <v>108929.25768</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>258443.40849</v>
+        <v>292617.51096</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>239975.22038</v>
+        <v>277986.91295</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>359232.61063</v>
+        <v>410947.2082</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>224464.02936</v>
+        <v>298531.26211</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>163959.53266</v>
+        <v>214183.2240399999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>598167.53594</v>
+        <v>641148.2830800001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>616527.5906900001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>698575.8638799998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>969262.101</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>216767.8296</v>
+        <v>231733.452</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>235857.21622</v>
+        <v>261118.38275</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>285077.30014</v>
+        <v>287156.9729299999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>254479.55331</v>
+        <v>268986.94828</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>307766.63192</v>
+        <v>330056.40537</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>424865.9146</v>
+        <v>402284.79923</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>549242.7080499999</v>
+        <v>657400.1200400001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>548947.77468</v>
+        <v>551909.3554400001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>941044.0442100001</v>
+        <v>927906.5805</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2026381.17688</v>
+        <v>1939865.27341</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1159883.50301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1099937.26764</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1526753.612</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2919.42802</v>
+        <v>5677.931769999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3429.03393</v>
+        <v>8765.09922</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3444.16841</v>
+        <v>3827.9552</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3066.77627</v>
+        <v>4306.16608</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7965.47083</v>
+        <v>7109.15446</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>16658.61166</v>
+        <v>9480.83833</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8509.74157</v>
+        <v>11090.13371</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6513.12913</v>
+        <v>5167.61049</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6072.9391</v>
+        <v>5471.83073</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8618.19785</v>
+        <v>14571.56655</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2660.83071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9995.41401</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>11967.169</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>10.24987</v>
+        <v>11610.60489</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>8994.18354</v>
+        <v>9057.640609999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1227.49542</v>
+        <v>1160.17723</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>951.6255600000001</v>
+        <v>961.6255600000001</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>7062.625019999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10679.10243</v>
+        <v>10609.99909</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2629.64975</v>
+        <v>1298.97052</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1137.18417</v>
@@ -1838,208 +1854,238 @@
         <v>5123.43592</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1580.94677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2361.72864</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3033.544</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>25711.18451</v>
+        <v>27392.40004</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>16860.49088</v>
+        <v>22663.57715</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>20234.33665</v>
+        <v>26165.73234</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>25018.75681</v>
+        <v>24879.54023</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>27937.75687</v>
+        <v>27516.20742</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>31705.66165</v>
+        <v>30369.29971</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32464.3738</v>
+        <v>33624.86241</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>32673.83521</v>
+        <v>27403.56716999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>51824.41735</v>
+        <v>50490.41894</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>70685.16166</v>
+        <v>68091.62372</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>95825.53099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>91638.11577999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>71881.75199999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>14286.37288</v>
+        <v>10272.15099</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>13510.6958</v>
+        <v>12641.82868</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>7352.96825</v>
+        <v>7085.89629</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>8410.56839</v>
+        <v>7713.95163</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5256.14076</v>
+        <v>5641.277990000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4025.63075</v>
+        <v>3949.32949</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5471.82045</v>
+        <v>5467.0867</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3674.36667</v>
+        <v>3549.41874</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>11685.90451</v>
+        <v>11686.50864</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6961.990470000001</v>
+        <v>7327.65968</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>16405.51646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>16613.71091</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7713.725</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1799.91258</v>
+        <v>1776.25565</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1761.12136</v>
+        <v>1831.32858</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3673.24804</v>
+        <v>3562.75492</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1595.56935</v>
+        <v>898.64225</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4141.97513</v>
+        <v>3928.27032</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3317.35685</v>
+        <v>3308.17981</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4965.85587</v>
+        <v>4797.125889999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3370.62253</v>
+        <v>3089.83298</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>7057.64968</v>
+        <v>7133.30109</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>11058.83282</v>
+        <v>10974.68771</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16665.74853</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>14315.74774</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>31799.038</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1823.45229</v>
+        <v>1887.64191</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3338.24054</v>
+        <v>3442.06518</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3982.8886</v>
+        <v>3364.63023</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2837.10206</v>
+        <v>2735.72908</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1520.90477</v>
+        <v>4465.40132</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3231.49057</v>
+        <v>2748.03598</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4189.22119</v>
+        <v>5020.698310000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>10605.50924</v>
+        <v>10296.77039</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5226.9002</v>
+        <v>4122.54414</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>4878.83179</v>
+        <v>4863.418439999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2126.7553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4543.906089999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>6267.953</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>108349.41579</v>
+        <v>108126.26194</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>133441.30616</v>
+        <v>141362.33452</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>173746.65589</v>
+        <v>175030.25493</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>131861.38549</v>
+        <v>144610.5057</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>176079.68356</v>
+        <v>192175.76872</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>239016.43591</v>
+        <v>245144.7481</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>370627.37543</v>
+        <v>474882.61407</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>363351.19777</v>
+        <v>375562.45672</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>359595.85792</v>
+        <v>356847.02997</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1734216.58279</v>
+        <v>1654290.99605</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>787515.60954</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>749085.35962</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1139500.307</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1160.4612</v>
@@ -2051,19 +2097,19 @@
         <v>902.7587100000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1043.75173</v>
+        <v>74.28067999999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>5782.415029999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>3843.10066</v>
+        <v>3853.32478</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3295.85489</v>
+        <v>2564.35462</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>742.96117</v>
+        <v>144.92055</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>408.40108</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>490.14315</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>97.69499999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.18125</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>41.44912</v>
+        <v>12.62282</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0.8904</v>
@@ -2113,194 +2164,219 @@
       <c r="M34" s="48" t="n">
         <v>34.78289</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>60701.17120999999</v>
+        <v>63823.56236</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>54428.99922</v>
+        <v>61290.19032000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>70511.88976999999</v>
+        <v>66055.92268</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>79694.01764999999</v>
+        <v>82806.50707000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>71695.24429</v>
+        <v>76050.86943000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>111800.96014</v>
+        <v>92233.47996000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>116770.69685</v>
+        <v>118336.15556</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>126878.96879</v>
+        <v>125557.59423</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>495826.66133</v>
+        <v>488401.23287</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>184114.52654</v>
+        <v>173898.2683</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>236577.63867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>210858.35881</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>254492.429</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>154055.81708</v>
+        <v>152469.57205</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>163153.53275</v>
+        <v>173981.74021</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>262135.38077</v>
+        <v>270490.5543700001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>175354.01592</v>
+        <v>190076.72061</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>310087.66171</v>
+        <v>343839.27937</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>290537.9879600001</v>
+        <v>291296.2924999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>499573.85834</v>
+        <v>634514.33994</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>497705.44721</v>
+        <v>545223.6762000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>525876.10681</v>
+        <v>601168.6154</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2123296.26173</v>
+        <v>1993831.81733</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>960585.93131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>928500.73996</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1363982.138</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5600.76324</v>
+        <v>4822.66995</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2562.61076</v>
+        <v>2845.25792</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>9566.505009999999</v>
+        <v>8499.458189999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5750.80299</v>
+        <v>5357.161150000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2529.54098</v>
+        <v>7858.05748</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6189.60087</v>
+        <v>5750.766930000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4024.14321</v>
+        <v>3372.0943</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5940.62596</v>
+        <v>5895.42178</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>17267.77612</v>
+        <v>17295.9857</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6970.58664</v>
+        <v>7291.030839999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12244.73108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12211.26809</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5388.635</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6980.58707</v>
+        <v>7176.40953</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>7740.40317</v>
+        <v>7287.822430000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>8081.818840000001</v>
+        <v>7358.43668</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20256.52301</v>
+        <v>19488.11253</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>15776.89079</v>
+        <v>15881.75272</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>18329.12544</v>
+        <v>18134.52771</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>29805.30307</v>
+        <v>33680.50923</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>14278.01892</v>
+        <v>14469.78957</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>15355.86648</v>
+        <v>29183.85909</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>47148.51751999999</v>
+        <v>46610.13043</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>33523.57633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>28961.57173</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>19969.186</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>144.16258</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1174.64666</v>
+        <v>890.2466599999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1837.41775</v>
+        <v>1805.63521</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>859.5807600000001</v>
+        <v>764.57817</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>667.9776899999999</v>
+        <v>609.37556</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1112.21115</v>
+        <v>649.6482199999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>206.08156</v>
+        <v>252.37557</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>859.1126999999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2713.61432</v>
+        <v>3078.33285</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>1511.78076</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>826.14571</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2590.033</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>114397.71006</v>
+        <v>112703.69889</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>119832.27345</v>
+        <v>130309.6649</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>211409.79072</v>
+        <v>222857.84012</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>119508.3876</v>
+        <v>133191.81812</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>259100.06698</v>
+        <v>288578.13227</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>225315.14621</v>
+        <v>233425.99413</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>423861.69969</v>
+        <v>556610.33796</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>424716.8623</v>
+        <v>470688.73086</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>441158.99963</v>
+        <v>504533.32924</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2003315.31492</v>
+        <v>1879151.68445</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>819582.3675299999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>797632.60508</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1252010.345</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1121.47562</v>
@@ -2360,19 +2446,19 @@
         <v>145.2806</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1199.54984</v>
+        <v>1075.30667</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1385.04972</v>
+        <v>649.5891899999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7191.22179</v>
+        <v>7007.36254</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6437.972849999999</v>
+        <v>6305.37899</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2413.06371</v>
+        <v>2065.11351</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1499.44703</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>134.64605</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>138.3</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.00621</v>
@@ -2405,7 +2496,7 @@
         <v>0.01381</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>34.51164</v>
+        <v>17.08619</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>2.07604</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>25811.1123</v>
+        <v>26501.14927</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>31693.20573</v>
+        <v>32498.35532</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>30040.29561</v>
+        <v>28893.8745</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>27593.65803</v>
+        <v>30625.44764</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>24787.45184</v>
+        <v>23887.51261</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>33151.8554</v>
+        <v>27027.90048</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>39210.39384</v>
+        <v>38480.73611</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>50411.3803</v>
+        <v>51811.17426000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>47755.76714</v>
+        <v>45453.02540000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>64041.53353</v>
+        <v>58958.66249</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>94274.46461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>88734.50330000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>83885.639</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>161210.90281</v>
+        <v>154198.70867</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>154114.32578</v>
+        <v>150563.35795</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>220291.47272</v>
+        <v>224362.89652</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>267952.28246</v>
+        <v>270438.89177</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>290519.09007</v>
+        <v>290308.26596</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>329493.75313</v>
+        <v>332081.54218</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>393336.06184</v>
+        <v>419661.1092299999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>463220.4813099999</v>
+        <v>464104.4113100001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>554289.7016899999</v>
+        <v>584875.6166700001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>774329.7164400001</v>
+        <v>776026.62421</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>770549.78825</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>782775.47043</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>759504.349</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>146505.2236</v>
+        <v>140015.93904</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>140429.28373</v>
+        <v>134641.749</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>197764.96623</v>
+        <v>198940.42019</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>244409.16778</v>
+        <v>243887.93963</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>261503.7163</v>
+        <v>260357.42121</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>302983.02526</v>
+        <v>297870.48424</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>360318.97023</v>
+        <v>372187.25631</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>425368.99268</v>
+        <v>426804.0653300001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>512179.66653</v>
+        <v>538650.3822999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>713290.88448</v>
+        <v>715083.11702</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>718507.2721599999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>726482.59814</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>718345.209</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>14705.67921</v>
+        <v>14182.76963</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>13685.04205</v>
+        <v>15921.60895</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>22526.50649</v>
+        <v>25422.47633</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>23543.11468</v>
+        <v>26550.95214</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>29015.37377</v>
+        <v>29950.84475</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26510.72787</v>
+        <v>34211.05794</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>33017.09161</v>
+        <v>47473.85292</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>37851.48862999999</v>
+        <v>37300.34598000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>42110.03516</v>
+        <v>46225.23437000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>61038.83196</v>
+        <v>60943.50719</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>52042.51609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>56292.87229</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>41159.14</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-9164.488029999999</v>
+        <v>20107.21114</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>12877.40291</v>
+        <v>21054.12076</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-33286.3569</v>
+        <v>-19079.0218</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-103206.08483</v>
+        <v>-82599.40642</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-34396.71137</v>
+        <v>-11473.629</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>44809.39388999999</v>
+        <v>56893.87750000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15565.3985</v>
+        <v>14171.87907</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-187514.12448</v>
+        <v>-158887.46996</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>24837.76837</v>
+        <v>-43954.42753</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-273077.2653499999</v>
+        <v>-188844.88505</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>45275.37413999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>87236.92113</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>372529.226</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>108242.38338</v>
+        <v>103571.65764</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>145613.03165</v>
+        <v>128925.18382</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>199588.50645</v>
+        <v>182904.70295</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>286529.52958</v>
+        <v>285025.93603</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>236985.89644</v>
+        <v>250066.27778</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>299113.86223</v>
+        <v>277632.51615</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>360376.33221</v>
+        <v>394262.47435</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>422846.82186</v>
+        <v>433372.39465</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>462517.56338</v>
+        <v>490432.81588</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>520156.30178</v>
+        <v>511786.42011</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>588965.65037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>596297.8229299999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>771151.775</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1204.4996</v>
+        <v>1442.61974</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2260.94773</v>
+        <v>2851.48069</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1921.47607</v>
+        <v>1904.58413</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3378.40764</v>
+        <v>4818.3311</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4344.44106</v>
+        <v>5557.465190000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1824.41708</v>
+        <v>1568.17966</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2132.43878</v>
+        <v>3396.34463</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8082.4277</v>
+        <v>7123.61393</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5607.87454</v>
+        <v>6715.81738</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5924.63634</v>
+        <v>5681.70315</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6846.457439999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6777.781390000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2865.56</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>107037.88378</v>
+        <v>102129.0379</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>143352.08392</v>
+        <v>126073.70313</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>197667.03038</v>
+        <v>181000.11882</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>283151.12194</v>
+        <v>280207.60493</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>232641.45538</v>
+        <v>244508.81259</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>297289.44515</v>
+        <v>276064.33649</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>358243.89343</v>
+        <v>390866.12972</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>414764.39416</v>
+        <v>426248.78072</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>456909.68884</v>
+        <v>483716.9985</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>514231.6654400001</v>
+        <v>506104.71696</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>582119.19293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>589520.04154</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>768286.215</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>63702.90417</v>
+        <v>57351.14671</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>92943.34089000001</v>
+        <v>81371.51903</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>340114.33662</v>
+        <v>319603.83823</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>168420.71607</v>
+        <v>153894.3688</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>131055.48324</v>
+        <v>137539.04003</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>233210.19283</v>
+        <v>214102.73401</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>186434.47358</v>
+        <v>180469.4908</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>323393.82225</v>
+        <v>295980.7918900001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>274912.16447</v>
+        <v>271921.07273</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>299543.56949</v>
+        <v>299827.89575</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>334467.67214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>299261.58239</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>288008.727</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2202.22615</v>
+        <v>1521.28759</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2201.83202</v>
+        <v>1058.86511</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3142.2454</v>
+        <v>2479.53445</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3423.09972</v>
+        <v>3150.79668</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>4049.47182</v>
+        <v>7619.502560000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3237.80164</v>
+        <v>2169.50825</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5548.34595</v>
+        <v>7713.0423</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>9415.22126</v>
+        <v>7222.38475</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5896.47742</v>
+        <v>8204.71018</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>20753.17292</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>17095.4873</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>27352.60499</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>15164.084</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6341.58682</v>
+        <v>5823.17977</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2704.92459</v>
+        <v>3058.7498</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>13478.34547</v>
+        <v>16457.82822</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>12915.2074</v>
+        <v>12901.61337</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5558.96958</v>
+        <v>5548.01369</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>6214.61688</v>
+        <v>6800.90878</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9168.524880000001</v>
+        <v>4911.15582</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6910.09145</v>
+        <v>5709.75136</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4183.26904</v>
+        <v>8541.53975</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12727.3664</v>
+        <v>12796.56196</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>18752.10467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>17287.46908</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6229.072</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>55159.0912</v>
+        <v>50006.67935</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>88036.58428</v>
+        <v>77253.90412000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>323493.74575</v>
+        <v>300666.47556</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>152082.40895</v>
+        <v>137841.95875</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>121447.04184</v>
+        <v>124371.52378</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>223757.77431</v>
+        <v>205132.31698</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>171717.60275</v>
+        <v>167845.29268</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>307068.5095399999</v>
+        <v>283048.65578</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>264832.41801</v>
+        <v>255174.8228</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>266063.03017</v>
+        <v>266278.16087</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>298620.08017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>254621.50832</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>266615.571</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>35374.99118</v>
+        <v>66327.72207</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>65547.09366999999</v>
+        <v>68607.78555000002</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-173812.18707</v>
+        <v>-155778.15708</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>14902.72868</v>
+        <v>48532.16081</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>71533.70183000001</v>
+        <v>101053.60875</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>110713.06329</v>
+        <v>120423.65964</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>189507.25713</v>
+        <v>227964.86262</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-88061.12487</v>
+        <v>-21495.86720000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>212443.16728</v>
+        <v>174557.31562</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-52464.53305999999</v>
+        <v>23113.63931</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>299773.35237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>384273.16167</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>855672.274</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>27262.34421</v>
+        <v>29887.43308999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>41009.53874</v>
+        <v>38040.88435</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41893.76062</v>
+        <v>42207.60279</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42870.5971</v>
+        <v>44827.08697</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50445.31735</v>
+        <v>52007.84925</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>66794.40538</v>
+        <v>63389.29154999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>77132.12974999999</v>
+        <v>73414.32527</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>75543.00320000001</v>
+        <v>79047.10903000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>105325.92212</v>
+        <v>102939.60517</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>117577.26517</v>
+        <v>113876.88781</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>152806.31381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>148161.50525</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>199307.299</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8112.646970000003</v>
+        <v>36440.28898</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>24537.55493</v>
+        <v>30566.9012</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-215705.94769</v>
+        <v>-197985.75987</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-27967.86842</v>
+        <v>3705.07384</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>21088.38448</v>
+        <v>49045.7595</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>43918.65790999999</v>
+        <v>57034.36809</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>112375.12738</v>
+        <v>154550.53735</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-163604.12807</v>
+        <v>-100542.97623</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>107117.24516</v>
+        <v>71617.71045</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-170041.79823</v>
+        <v>-90763.2485</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>146967.03856</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>236111.65642</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>656364.975</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>699</v>
+        <v>594</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>833</v>
+        <v>711</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1060</v>
+        <v>903</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1262</v>
+        <v>1057</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1027</v>
+        <v>902</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1205</v>
+        <v>1035</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1333</v>
+        <v>1147</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1478</v>
+        <v>1225</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1775</v>
+        <v>1487</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1036</v>
+        <v>974</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>990</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>